--- a/Stephanie/OECD-happiness-sheets-021918.xlsx
+++ b/Stephanie/OECD-happiness-sheets-021918.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="7060" yWindow="460" windowWidth="26540" windowHeight="16540" activeTab="3" xr2:uid="{416CC1B6-4C2A-D245-85D0-73D50AD6481A}"/>
+    <workbookView xWindow="7060" yWindow="460" windowWidth="26540" windowHeight="16540" activeTab="4" xr2:uid="{416CC1B6-4C2A-D245-85D0-73D50AD6481A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="5" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1070" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1111" uniqueCount="145">
   <si>
     <t>Austria</t>
   </si>
@@ -463,6 +463,12 @@
   </si>
   <si>
     <t>55-64</t>
+  </si>
+  <si>
+    <t>2015 Antidepressant</t>
+  </si>
+  <si>
+    <t>N/A</t>
   </si>
 </sst>
 </file>
@@ -4082,7 +4088,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25046537-008C-D043-B7F4-B746E93986FE}">
   <dimension ref="A1:P331"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -9615,650 +9621,1117 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{288E8824-9505-CA4A-8BE5-0B6045F85365}">
-  <dimension ref="A1:H37"/>
+  <dimension ref="A1:M37"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="19.1640625" customWidth="1"/>
-    <col min="4" max="4" width="19" customWidth="1"/>
-    <col min="5" max="5" width="37.1640625" customWidth="1"/>
-    <col min="6" max="6" width="33.33203125" customWidth="1"/>
+    <col min="5" max="8" width="19.1640625" customWidth="1"/>
+    <col min="9" max="9" width="19" customWidth="1"/>
+    <col min="10" max="10" width="37.1640625" customWidth="1"/>
+    <col min="11" max="11" width="33.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="48" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:13" ht="48" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>123</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="E1" s="2" t="s">
+      <c r="C1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="H1" s="1"/>
+      <c r="J1" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="H1" t="s">
+      <c r="M1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>84</v>
       </c>
       <c r="B2">
-        <f>VLOOKUP(A2, '[1]SUMMARY COPY'!A:B, 2, FALSE)</f>
         <v>7.2839999198913574</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C2">
+        <v>104.2</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F2">
+        <f>VLOOKUP(E2, '[1]SUMMARY COPY'!A:B, 2, FALSE)</f>
+        <v>7.2839999198913574</v>
+      </c>
+      <c r="G2">
+        <f>VLOOKUP(E2, I:K, 3, FALSE)</f>
+        <v>104.2</v>
+      </c>
+      <c r="I2" t="s">
         <v>68</v>
       </c>
-      <c r="E2" t="s">
+      <c r="J2" t="s">
         <v>69</v>
       </c>
-      <c r="F2">
+      <c r="K2">
         <v>12.3</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>85</v>
       </c>
       <c r="B3">
-        <f>VLOOKUP(A3, '[1]SUMMARY COPY'!A:B, 2, FALSE)</f>
         <v>7.0060000419616699</v>
       </c>
-      <c r="D3" t="s">
+      <c r="C3">
+        <v>60.3</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="F3">
+        <f>VLOOKUP(E3, '[1]SUMMARY COPY'!A:B, 2, FALSE)</f>
+        <v>7.0060000419616699</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G36" si="0">VLOOKUP(E3, I:K, 3, FALSE)</f>
+        <v>60.3</v>
+      </c>
+      <c r="I3" t="s">
         <v>70</v>
       </c>
-      <c r="E3" t="s">
+      <c r="J3" t="s">
         <v>69</v>
       </c>
-      <c r="F3">
+      <c r="K3">
         <v>20.3</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>86</v>
       </c>
       <c r="B4">
-        <f>VLOOKUP(A4, '[1]SUMMARY COPY'!A:B, 2, FALSE)</f>
         <v>6.8909997940063477</v>
       </c>
-      <c r="D4" t="s">
+      <c r="C4">
+        <v>78.3</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="F4">
+        <f>VLOOKUP(E4, '[1]SUMMARY COPY'!A:B, 2, FALSE)</f>
+        <v>6.8909997940063477</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>78.3</v>
+      </c>
+      <c r="I4" t="s">
         <v>71</v>
       </c>
-      <c r="E4">
+      <c r="J4">
         <v>6.4</v>
       </c>
-      <c r="F4">
+      <c r="K4">
         <v>24.8</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>87</v>
       </c>
       <c r="B5">
-        <f>VLOOKUP(A5, '[1]SUMMARY COPY'!A:B, 2, FALSE)</f>
         <v>7.3159999847412109</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C5">
+        <v>90.1</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="F5">
+        <f>VLOOKUP(E5, '[1]SUMMARY COPY'!A:B, 2, FALSE)</f>
+        <v>7.3159999847412109</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>90.1</v>
+      </c>
+      <c r="I5" t="s">
         <v>72</v>
       </c>
-      <c r="E5">
+      <c r="J5">
         <v>13.5</v>
       </c>
-      <c r="F5">
+      <c r="K5">
         <v>28.3</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>88</v>
       </c>
       <c r="B6">
-        <f>VLOOKUP(A6, '[1]SUMMARY COPY'!A:B, 2, FALSE)</f>
         <v>6.6519999504089355</v>
       </c>
-      <c r="D6" t="s">
+      <c r="C6">
+        <v>37.299999999999997</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="F6">
+        <f>VLOOKUP(E6, '[1]SUMMARY COPY'!A:B, 2, FALSE)</f>
+        <v>6.6519999504089355</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>37.299999999999997</v>
+      </c>
+      <c r="I6" t="s">
         <v>73</v>
       </c>
-      <c r="E6" t="s">
+      <c r="J6" t="s">
         <v>69</v>
       </c>
-      <c r="F6">
+      <c r="K6">
         <v>37.299999999999997</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>89</v>
       </c>
       <c r="B7">
-        <f>VLOOKUP(A7, '[1]SUMMARY COPY'!A:B, 2, FALSE)</f>
         <v>6.6090002059936523</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C7">
+        <v>55</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="F7">
+        <f>VLOOKUP(E7, '[1]SUMMARY COPY'!A:B, 2, FALSE)</f>
+        <v>6.6090002059936523</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="I7" t="s">
         <v>15</v>
       </c>
-      <c r="E7" t="s">
+      <c r="J7" t="s">
         <v>69</v>
       </c>
-      <c r="F7">
+      <c r="K7">
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>90</v>
       </c>
       <c r="B8">
-        <f>VLOOKUP(A8, '[1]SUMMARY COPY'!A:B, 2, FALSE)</f>
         <v>7.5219998359680176</v>
       </c>
-      <c r="D8" t="s">
+      <c r="C8">
+        <v>77</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="F8">
+        <f>VLOOKUP(E8, '[1]SUMMARY COPY'!A:B, 2, FALSE)</f>
+        <v>7.5219998359680176</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>77</v>
+      </c>
+      <c r="I8" t="s">
         <v>74</v>
       </c>
-      <c r="E8">
+      <c r="J8">
         <v>8.6</v>
       </c>
-      <c r="F8">
+      <c r="K8">
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>91</v>
       </c>
       <c r="B9">
-        <f>VLOOKUP(A9, '[1]SUMMARY COPY'!A:B, 2, FALSE)</f>
         <v>5.6110000610351562</v>
       </c>
-      <c r="D9" t="s">
+      <c r="C9">
+        <v>24.8</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="F9">
+        <f>VLOOKUP(E9, '[1]SUMMARY COPY'!A:B, 2, FALSE)</f>
+        <v>5.6110000610351562</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>24.8</v>
+      </c>
+      <c r="I9" t="s">
         <v>75</v>
       </c>
-      <c r="E9" t="s">
+      <c r="J9" t="s">
         <v>69</v>
       </c>
-      <c r="F9">
+      <c r="K9">
         <v>44.4</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>92</v>
       </c>
       <c r="B10">
-        <f>VLOOKUP(A10, '[1]SUMMARY COPY'!A:B, 2, FALSE)</f>
         <v>7.4689998626708984</v>
       </c>
-      <c r="D10" t="s">
+      <c r="C10">
+        <v>68.2</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="F10">
+        <f>VLOOKUP(E10, '[1]SUMMARY COPY'!A:B, 2, FALSE)</f>
+        <v>7.4689998626708984</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>68.2</v>
+      </c>
+      <c r="I10" t="s">
         <v>21</v>
       </c>
-      <c r="E10">
+      <c r="J10">
         <v>31.4</v>
       </c>
-      <c r="F10">
+      <c r="K10">
         <v>45.1</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>93</v>
       </c>
       <c r="B11">
-        <f>VLOOKUP(A11, '[1]SUMMARY COPY'!A:B, 2, FALSE)</f>
         <v>6.4419999122619629</v>
       </c>
-      <c r="D11" t="s">
+      <c r="C11">
+        <v>49.8</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="F11">
+        <f>VLOOKUP(E11, '[1]SUMMARY COPY'!A:B, 2, FALSE)</f>
+        <v>6.4419999122619629</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>49.8</v>
+      </c>
+      <c r="I11" t="s">
         <v>8</v>
       </c>
-      <c r="E11">
+      <c r="J11">
         <v>19.600000000000001</v>
       </c>
-      <c r="F11">
+      <c r="K11">
         <v>46.5</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>94</v>
       </c>
       <c r="B12">
-        <f>VLOOKUP(A12, '[1]SUMMARY COPY'!A:B, 2, FALSE)</f>
         <v>6.9510002136230469</v>
       </c>
-      <c r="D12" t="s">
+      <c r="C12">
+        <v>56.4</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F12">
+        <f>VLOOKUP(E12, '[1]SUMMARY COPY'!A:B, 2, FALSE)</f>
+        <v>6.9510002136230469</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>56.4</v>
+      </c>
+      <c r="I12" t="s">
         <v>5</v>
       </c>
-      <c r="E12">
+      <c r="J12">
         <v>18.899999999999999</v>
       </c>
-      <c r="F12">
+      <c r="K12">
         <v>48.1</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>95</v>
       </c>
       <c r="B13">
-        <f>VLOOKUP(A13, '[1]SUMMARY COPY'!A:B, 2, FALSE)</f>
         <v>5.2270002365112305</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C13">
+        <v>48.1</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="F13">
+        <f>VLOOKUP(E13, '[1]SUMMARY COPY'!A:B, 2, FALSE)</f>
+        <v>5.2270002365112305</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>48.1</v>
+      </c>
+      <c r="I13" t="s">
         <v>4</v>
       </c>
-      <c r="E13">
+      <c r="J13">
         <v>39.5</v>
       </c>
-      <c r="F13">
+      <c r="K13">
         <v>49.8</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>96</v>
       </c>
       <c r="B14">
-        <f>VLOOKUP(A14, '[1]SUMMARY COPY'!A:B, 2, FALSE)</f>
         <v>5.3239998817443848</v>
       </c>
-      <c r="D14" t="s">
+      <c r="C14">
+        <v>28.3</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="F14">
+        <f>VLOOKUP(E14, '[1]SUMMARY COPY'!A:B, 2, FALSE)</f>
+        <v>5.3239998817443848</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>28.3</v>
+      </c>
+      <c r="I14" t="s">
         <v>9</v>
       </c>
-      <c r="E14">
+      <c r="J14">
         <v>36.200000000000003</v>
       </c>
-      <c r="F14">
+      <c r="K14">
         <v>53.7</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>122</v>
       </c>
       <c r="B15">
-        <f>VLOOKUP(A15, '[1]SUMMARY COPY'!A:B, 2, FALSE)</f>
         <v>7.504000186920166</v>
       </c>
-      <c r="D15" t="s">
+      <c r="C15">
+        <v>129.6</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="F15">
+        <f>VLOOKUP(E15, '[1]SUMMARY COPY'!A:B, 2, FALSE)</f>
+        <v>7.504000186920166</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>129.6</v>
+      </c>
+      <c r="I15" t="s">
         <v>76</v>
       </c>
-      <c r="E15">
+      <c r="J15">
         <v>9.6999999999999993</v>
       </c>
-      <c r="F15">
+      <c r="K15">
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>97</v>
       </c>
       <c r="B16">
-        <f>VLOOKUP(A16, '[1]SUMMARY COPY'!A:B, 2, FALSE)</f>
         <v>6.9770002365112305</v>
       </c>
-      <c r="D16" t="s">
+      <c r="C16">
+        <v>55.51</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="F16">
+        <f>VLOOKUP(E16, '[1]SUMMARY COPY'!A:B, 2, FALSE)</f>
+        <v>6.9770002365112305</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="0"/>
+        <v>55.51</v>
+      </c>
+      <c r="I16" t="s">
         <v>20</v>
       </c>
-      <c r="E16">
+      <c r="J16">
         <v>20.7</v>
       </c>
-      <c r="F16">
+      <c r="K16">
         <v>56.4</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>98</v>
       </c>
       <c r="B17">
-        <f>VLOOKUP(A17, '[1]SUMMARY COPY'!A:B, 2, FALSE)</f>
         <v>7.2129998207092285</v>
       </c>
-      <c r="D17" t="s">
+      <c r="C17">
+        <v>44.4</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="F17">
+        <f>VLOOKUP(E17, '[1]SUMMARY COPY'!A:B, 2, FALSE)</f>
+        <v>7.2129998207092285</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="0"/>
+        <v>44.4</v>
+      </c>
+      <c r="I17" t="s">
         <v>10</v>
       </c>
-      <c r="E17">
+      <c r="J17">
         <v>41.3</v>
       </c>
-      <c r="F17">
+      <c r="K17">
         <v>56.5</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>99</v>
       </c>
       <c r="B18">
-        <f>VLOOKUP(A18, '[1]SUMMARY COPY'!A:B, 2, FALSE)</f>
         <v>5.9640002250671387</v>
       </c>
-      <c r="D18" t="s">
+      <c r="C18">
+        <v>46.5</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="F18">
+        <f>VLOOKUP(E18, '[1]SUMMARY COPY'!A:B, 2, FALSE)</f>
+        <v>5.9640002250671387</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="0"/>
+        <v>46.5</v>
+      </c>
+      <c r="I18" t="s">
         <v>77</v>
       </c>
-      <c r="E18" t="s">
+      <c r="J18" t="s">
         <v>69</v>
       </c>
-      <c r="F18">
+      <c r="K18">
         <v>56.8</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>100</v>
       </c>
       <c r="B19">
-        <f>VLOOKUP(A19, '[1]SUMMARY COPY'!A:B, 2, FALSE)</f>
         <v>5.9200000762939453</v>
       </c>
-      <c r="D19" t="s">
+      <c r="C19" t="s">
+        <v>144</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="F19">
+        <f>VLOOKUP(E19, '[1]SUMMARY COPY'!A:B, 2, FALSE)</f>
+        <v>5.9200000762939453</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E19" t="s">
+      <c r="I19" t="s">
+        <v>0</v>
+      </c>
+      <c r="J19" t="s">
         <v>69</v>
       </c>
-      <c r="F19">
+      <c r="K19">
         <v>60.3</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="s">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>101</v>
       </c>
       <c r="B20">
-        <f>VLOOKUP(A20, '[1]SUMMARY COPY'!A:B, 2, FALSE)</f>
         <v>5.8379998207092285</v>
       </c>
-      <c r="D20" t="s">
+      <c r="C20">
+        <v>20.3</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="F20">
+        <f>VLOOKUP(E20, '[1]SUMMARY COPY'!A:B, 2, FALSE)</f>
+        <v>5.8379998207092285</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="0"/>
+        <v>20.3</v>
+      </c>
+      <c r="I20" t="s">
         <v>78</v>
       </c>
-      <c r="E20">
+      <c r="J20">
         <v>35.5</v>
       </c>
-      <c r="F20">
+      <c r="K20">
         <v>68.2</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>102</v>
       </c>
       <c r="B21">
-        <f>VLOOKUP(A21, '[1]SUMMARY COPY'!A:B, 2, FALSE)</f>
         <v>5.8499999046325684</v>
       </c>
-      <c r="D21" t="s">
+      <c r="C21">
+        <v>12.3</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="F21">
+        <f>VLOOKUP(E21, '[1]SUMMARY COPY'!A:B, 2, FALSE)</f>
+        <v>5.8499999046325684</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="0"/>
+        <v>12.3</v>
+      </c>
+      <c r="I21" t="s">
         <v>79</v>
       </c>
-      <c r="E21" t="s">
+      <c r="J21" t="s">
         <v>69</v>
       </c>
-      <c r="F21">
+      <c r="K21">
         <v>72.8</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="4" t="s">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>103</v>
       </c>
       <c r="B22">
-        <f>VLOOKUP(A22, '[1]SUMMARY COPY'!A:B, 2, FALSE)</f>
         <v>6.8629999160766602</v>
       </c>
-      <c r="D22" t="s">
+      <c r="C22">
+        <v>53.7</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="F22">
+        <f>VLOOKUP(E22, '[1]SUMMARY COPY'!A:B, 2, FALSE)</f>
+        <v>6.8629999160766602</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="0"/>
+        <v>53.7</v>
+      </c>
+      <c r="I22" t="s">
         <v>12</v>
       </c>
-      <c r="E22">
+      <c r="J22">
         <v>28.2</v>
       </c>
-      <c r="F22">
+      <c r="K22">
         <v>73.099999999999994</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>104</v>
       </c>
       <c r="B23">
-        <f>VLOOKUP(A23, '[1]SUMMARY COPY'!A:B, 2, FALSE)</f>
         <v>6.5780000686645508</v>
       </c>
-      <c r="D23" t="s">
+      <c r="C23" t="s">
+        <v>144</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="F23">
+        <f>VLOOKUP(E23, '[1]SUMMARY COPY'!A:B, 2, FALSE)</f>
+        <v>6.5780000686645508</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I23" t="s">
         <v>3</v>
       </c>
-      <c r="E23">
+      <c r="J23">
         <v>35.200000000000003</v>
       </c>
-      <c r="F23">
+      <c r="K23">
         <v>77</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="4" t="s">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>105</v>
       </c>
       <c r="B24">
-        <f>VLOOKUP(A24, '[1]SUMMARY COPY'!A:B, 2, FALSE)</f>
         <v>7.3769998550415039</v>
       </c>
-      <c r="D24" t="s">
+      <c r="C24">
+        <v>45.1</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="F24">
+        <f>VLOOKUP(E24, '[1]SUMMARY COPY'!A:B, 2, FALSE)</f>
+        <v>7.3769998550415039</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="0"/>
+        <v>45.1</v>
+      </c>
+      <c r="I24" t="s">
         <v>1</v>
       </c>
-      <c r="E24">
+      <c r="J24">
         <v>38.799999999999997</v>
       </c>
-      <c r="F24">
+      <c r="K24">
         <v>78.3</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="4" t="s">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>106</v>
       </c>
       <c r="B25">
-        <f>VLOOKUP(A25, '[1]SUMMARY COPY'!A:B, 2, FALSE)</f>
         <v>7.314000129699707</v>
       </c>
-      <c r="D25" t="s">
+      <c r="C25">
+        <v>72.8</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="F25">
+        <f>VLOOKUP(E25, '[1]SUMMARY COPY'!A:B, 2, FALSE)</f>
+        <v>7.314000129699707</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="0"/>
+        <v>72.8</v>
+      </c>
+      <c r="I25" t="s">
         <v>2</v>
       </c>
-      <c r="E25" t="s">
+      <c r="J25" t="s">
         <v>69</v>
       </c>
-      <c r="F25">
+      <c r="K25">
         <v>90.1</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="4" t="s">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>107</v>
       </c>
       <c r="B26">
-        <f>VLOOKUP(A26, '[1]SUMMARY COPY'!A:B, 2, FALSE)</f>
         <v>7.5370001792907715</v>
       </c>
-      <c r="D26" t="s">
+      <c r="C26">
+        <v>56.5</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="F26">
+        <f>VLOOKUP(E26, '[1]SUMMARY COPY'!A:B, 2, FALSE)</f>
+        <v>7.5370001792907715</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="0"/>
+        <v>56.5</v>
+      </c>
+      <c r="I26" t="s">
         <v>13</v>
       </c>
-      <c r="E26">
+      <c r="J26">
         <v>44.8</v>
       </c>
-      <c r="F26">
+      <c r="K26">
         <v>92.5</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="4" t="s">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>108</v>
       </c>
       <c r="B27">
-        <f>VLOOKUP(A27, '[1]SUMMARY COPY'!A:B, 2, FALSE)</f>
         <v>5.9730000495910645</v>
       </c>
-      <c r="D27" t="s">
+      <c r="C27">
+        <v>16.66</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F27">
+        <f>VLOOKUP(E27, '[1]SUMMARY COPY'!A:B, 2, FALSE)</f>
+        <v>5.9730000495910645</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="0"/>
+        <v>16.66</v>
+      </c>
+      <c r="I27" t="s">
         <v>16</v>
       </c>
-      <c r="E27">
+      <c r="J27">
         <v>37.6</v>
       </c>
-      <c r="F27">
+      <c r="K27">
         <v>94.2</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="4" t="s">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>109</v>
       </c>
       <c r="B28">
-        <f>VLOOKUP(A28, '[1]SUMMARY COPY'!A:B, 2, FALSE)</f>
         <v>5.195000171661377</v>
       </c>
-      <c r="D28" t="s">
+      <c r="C28">
+        <v>95.1</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="F28">
+        <f>VLOOKUP(E28, '[1]SUMMARY COPY'!A:B, 2, FALSE)</f>
+        <v>5.195000171661377</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="0"/>
+        <v>95.1</v>
+      </c>
+      <c r="I28" t="s">
         <v>11</v>
       </c>
-      <c r="E28">
+      <c r="J28">
         <v>32.5</v>
       </c>
-      <c r="F28">
+      <c r="K28">
         <v>95.1</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="4" t="s">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>110</v>
       </c>
       <c r="B29">
-        <f>VLOOKUP(A29, '[1]SUMMARY COPY'!A:B, 2, FALSE)</f>
         <v>6.0980000495910645</v>
       </c>
-      <c r="D29" t="s">
+      <c r="C29">
+        <v>40</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="F29">
+        <f>VLOOKUP(E29, '[1]SUMMARY COPY'!A:B, 2, FALSE)</f>
+        <v>6.0980000495910645</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="I29" t="s">
         <v>80</v>
       </c>
-      <c r="E29">
+      <c r="J29">
         <v>45.4</v>
       </c>
-      <c r="F29">
+      <c r="K29">
         <v>104.2</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="4" t="s">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>111</v>
       </c>
       <c r="B30">
-        <f>VLOOKUP(A30, '[1]SUMMARY COPY'!A:B, 2, FALSE)</f>
         <v>5.7579998970031738</v>
       </c>
-      <c r="D30" t="s">
+      <c r="C30">
+        <v>56.8</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="F30">
+        <f>VLOOKUP(E30, '[1]SUMMARY COPY'!A:B, 2, FALSE)</f>
+        <v>5.7579998970031738</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="0"/>
+        <v>56.8</v>
+      </c>
+      <c r="I30" t="s">
         <v>6</v>
       </c>
-      <c r="E30">
+      <c r="J30">
         <v>70.5</v>
       </c>
-      <c r="F30">
+      <c r="K30">
         <v>129.6</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="4" t="s">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>112</v>
       </c>
       <c r="B31">
-        <f>VLOOKUP(A31, '[1]SUMMARY COPY'!A:B, 2, FALSE)</f>
         <v>6.4029998779296875</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="4" t="s">
+      <c r="C31">
+        <v>73.099999999999994</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="F31">
+        <f>VLOOKUP(E31, '[1]SUMMARY COPY'!A:B, 2, FALSE)</f>
+        <v>6.4029998779296875</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="0"/>
+        <v>73.099999999999994</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
         <v>113</v>
       </c>
       <c r="B32">
-        <f>VLOOKUP(A32, '[1]SUMMARY COPY'!A:B, 2, FALSE)</f>
         <v>7.2839999198913574</v>
       </c>
-      <c r="D32" t="s">
+      <c r="C32">
+        <v>92.5</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="F32">
+        <f>VLOOKUP(E32, '[1]SUMMARY COPY'!A:B, 2, FALSE)</f>
+        <v>7.2839999198913574</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="0"/>
+        <v>92.5</v>
+      </c>
+      <c r="I32" t="s">
         <v>97</v>
       </c>
-      <c r="F32">
+      <c r="K32">
         <v>55.51</v>
       </c>
-      <c r="H32" t="s">
+      <c r="M32" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="4" t="s">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
         <v>114</v>
       </c>
       <c r="B33">
-        <f>VLOOKUP(A33, '[1]SUMMARY COPY'!A:B, 2, FALSE)</f>
         <v>7.4939999580383301</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="C33">
+        <v>49.08</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="F33">
+        <f>VLOOKUP(E33, '[1]SUMMARY COPY'!A:B, 2, FALSE)</f>
+        <v>7.4939999580383301</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="0"/>
+        <v>49.08</v>
+      </c>
+      <c r="I33" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="4" t="s">
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
         <v>115</v>
       </c>
       <c r="B34">
-        <f>VLOOKUP(A34, '[1]SUMMARY COPY'!A:B, 2, FALSE)</f>
         <v>5.5</v>
       </c>
-      <c r="D34" s="5" t="s">
+      <c r="C34">
+        <v>38</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="F34">
+        <f>VLOOKUP(E34, '[1]SUMMARY COPY'!A:B, 2, FALSE)</f>
+        <v>5.5</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="I34" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="4" t="s">
+      <c r="J34" s="6"/>
+      <c r="K34" s="6"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
         <v>116</v>
       </c>
       <c r="B35">
-        <f>VLOOKUP(A35, '[1]SUMMARY COPY'!A:B, 2, FALSE)</f>
         <v>6.7140002250671387</v>
       </c>
-      <c r="D35" t="s">
+      <c r="C35">
+        <v>94.2</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F35">
+        <f>VLOOKUP(E35, '[1]SUMMARY COPY'!A:B, 2, FALSE)</f>
+        <v>6.7140002250671387</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="0"/>
+        <v>94.2</v>
+      </c>
+      <c r="I35" t="s">
         <v>108</v>
       </c>
-      <c r="F35">
+      <c r="K35">
         <v>16.66</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="4" t="s">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
         <v>117</v>
       </c>
       <c r="B36">
-        <f>VLOOKUP(A36, '[1]SUMMARY COPY'!A:B, 2, FALSE)</f>
         <v>6.9930000305175781</v>
       </c>
-      <c r="D36" t="s">
+      <c r="C36">
+        <v>110</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="F36">
+        <f>VLOOKUP(E36, '[1]SUMMARY COPY'!A:B, 2, FALSE)</f>
+        <v>6.9930000305175781</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="0"/>
+        <v>110</v>
+      </c>
+      <c r="I36" t="s">
         <v>114</v>
       </c>
-      <c r="F36">
+      <c r="K36">
         <v>49.08</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D37" t="s">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I37" t="s">
         <v>117</v>
       </c>
-      <c r="F37">
+      <c r="K37">
         <v>110</v>
       </c>
     </row>

--- a/Stephanie/OECD-happiness-sheets-021918.xlsx
+++ b/Stephanie/OECD-happiness-sheets-021918.xlsx
@@ -3291,7 +3291,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EE6E2B8-2A66-BD46-B06F-C64AC15B7958}">
   <dimension ref="A1:L65"/>
   <sheetViews>
-    <sheetView topLeftCell="B2" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
@@ -9624,15 +9624,16 @@
   <dimension ref="A1:M37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="8" width="19.1640625" customWidth="1"/>
-    <col min="9" max="9" width="19" customWidth="1"/>
-    <col min="10" max="10" width="37.1640625" customWidth="1"/>
-    <col min="11" max="11" width="33.33203125" customWidth="1"/>
+    <col min="5" max="8" width="19.1640625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="9" width="19" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="10" max="10" width="37.1640625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="11" max="11" width="33.33203125" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="12" max="12" width="10.83203125" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="48" x14ac:dyDescent="0.2">
